--- a/biology/Zoologie/Euchloe_creusa/Euchloe_creusa.xlsx
+++ b/biology/Zoologie/Euchloe_creusa/Euchloe_creusa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euchloe creusa  est un  insecte lépidoptère de la famille des Pieridae, de la sous-famille des Pierinae et du genre Euchloe.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Euchloe creusa a été nommé par Edward Doubleday en 1847.
-Synonymes : Anthocharis creusa Doubleday, [1847]; Euchloe elsa Beutenmüller, 1898 ; Euchloe orientalides Verity, 1908[1];
-Noms vernaculaires
-Euchloe creusa se nomme Northern Marble ou Northern Marblewing en anglais[1].
+Synonymes : Anthocharis creusa Doubleday, ; Euchloe elsa Beutenmüller, 1898 ; Euchloe orientalides Verity, 1908;
 </t>
         </is>
       </c>
@@ -542,12 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ce papillon de taille petite à moyenne (son envergure varie de 24 à 42 mm) en majorité blanc présente sur le dessus de l'aile antérieure à l'apex  une plage gris vert ponctuée de  blanc et une tache discoïdale étroite de couleur foncée. Le revers de l'aile antérieure est blanc avec une tache discoïdale étroite et une plage verte à l'apex et celui de l'aile postérieure est orné de longues rayures vertes[2].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euchloe creusa se nomme Northern Marble ou Northern Marblewing en anglais.
 </t>
         </is>
       </c>
@@ -573,16 +591,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole en une seule génération de fin mai à début juillet[2].
-Il hiverne au stade de chrysalide[3].
-Plantes hôtes
-Les plantes hôtes de la chenille sont des Draba et d'autres Brassicaceae[1].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce papillon de taille petite à moyenne (son envergure varie de 24 à 42 mm) en majorité blanc présente sur le dessus de l'aile antérieure à l'apex  une plage gris vert ponctuée de  blanc et une tache discoïdale étroite de couleur foncée. Le revers de l'aile antérieure est blanc avec une tache discoïdale étroite et une plage verte à l'apex et celui de l'aile postérieure est orné de longues rayures vertes.
 </t>
         </is>
       </c>
@@ -608,16 +624,163 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en une seule génération de fin mai à début juillet.
+Il hiverne au stade de chrysalide.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Euchloe_creusa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euchloe_creusa</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de la chenille sont des Draba et d'autres Brassicaceae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Euchloe_creusa</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euchloe_creusa</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent en Amérique du Nord dans les Montagnes Rocheuses[1]. Au Canada il réside en Colombie-Britannique, Alberta et  Saskatchewan. Aux États-Unis il réside dans le sud de l'Alaska et le nord du Montana dans Glacier National Park[3].
-Biotope
-Il réside dans la toundra sèche et dans les clairières des Montagnes Rocheuses[2].
-Protection
-Il n'y a pas de statut de protection particulier mais une étude et une protection de son habitat est requise[4],[3].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Amérique du Nord dans les Montagnes Rocheuses. Au Canada il réside en Colombie-Britannique, Alberta et  Saskatchewan. Aux États-Unis il réside dans le sud de l'Alaska et le nord du Montana dans Glacier National Park.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Euchloe_creusa</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euchloe_creusa</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la toundra sèche et dans les clairières des Montagnes Rocheuses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Euchloe_creusa</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euchloe_creusa</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il n'y a pas de statut de protection particulier mais une étude et une protection de son habitat est requise,.
 </t>
         </is>
       </c>
